--- a/ig/sd-short-primarypurpose/StructureDefinition-eclaire-contact-affiliation.xlsx
+++ b/ig/sd-short-primarypurpose/StructureDefinition-eclaire-contact-affiliation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T15:54:43+00:00</t>
+    <t>2024-02-15T16:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-short-primarypurpose/StructureDefinition-eclaire-contact-affiliation.xlsx
+++ b/ig/sd-short-primarypurpose/StructureDefinition-eclaire-contact-affiliation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:41:53+00:00</t>
+    <t>2024-02-15T16:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
